--- a/Modelagem/Dicionario de Dados.xlsx
+++ b/Modelagem/Dicionario de Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamily.luzes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C80DE-736B-4415-99B5-9B44CB38CADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741113A3-EB92-4C94-A452-45157E11AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="11" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="Fornecedores" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,9 +144,6 @@
     <t>1 - sem limite</t>
   </si>
   <si>
-    <t>Varchar(18)</t>
-  </si>
-  <si>
     <t>10-15</t>
   </si>
   <si>
@@ -878,6 +874,9 @@
   </si>
   <si>
     <t>Tabela responsável por armazenar os dados das empresas ou pessoas jurídicas que fornecem serviços ou equipamentos.</t>
+  </si>
+  <si>
+    <t>Varchar(11)</t>
   </si>
 </sst>
 </file>
@@ -1034,6 +1033,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1042,9 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1377,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1392,47 +1391,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1453,10 +1452,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1471,19 +1470,19 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -1491,16 +1490,16 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>29</v>
@@ -1511,14 +1510,14 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1531,19 +1530,19 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
@@ -1551,14 +1550,14 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1573,27 +1572,27 @@
         <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1603,17 +1602,17 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1621,17 +1620,17 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -1639,17 +1638,17 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="18"/>
+      <c r="A15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
@@ -1657,56 +1656,46 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="A16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="18"/>
+      <c r="A17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B1:H1"/>
@@ -1720,6 +1709,16 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1752,47 +1751,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1813,10 +1812,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -1831,14 +1830,14 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1853,14 +1852,14 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1875,19 +1874,19 @@
         <v>20</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -1895,39 +1894,39 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>222</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
-        <v>224</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>9</v>
@@ -1935,19 +1934,19 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>9</v>
@@ -1955,26 +1954,26 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
@@ -1984,17 +1983,17 @@
       <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -2002,62 +2001,76 @@
       <c r="E14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="18"/>
+      <c r="A15" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4"/>
       <c r="D17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="A14:B14"/>
@@ -2066,20 +2079,6 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2108,47 +2107,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -2169,10 +2168,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -2187,14 +2186,14 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
@@ -2209,19 +2208,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -2229,19 +2228,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -2249,19 +2248,19 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>9</v>
@@ -2269,19 +2268,19 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>9</v>
@@ -2289,26 +2288,26 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2318,17 +2317,17 @@
       <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2336,62 +2335,73 @@
       <c r="E13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B16"/>
@@ -2402,17 +2412,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2422,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A55FCD8-AAC8-4D8D-A092-A88F3F334D41}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
@@ -2441,47 +2440,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -2502,10 +2501,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -2520,14 +2519,14 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
@@ -2540,19 +2539,19 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -2560,19 +2559,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -2580,26 +2579,26 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
@@ -2609,17 +2608,17 @@
       <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2627,17 +2626,17 @@
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="4"/>
       <c r="D12" s="12" t="s">
         <v>10</v>
@@ -2645,47 +2644,47 @@
       <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2714,47 +2713,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2775,10 +2774,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -2793,14 +2792,14 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
@@ -2813,19 +2812,19 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -2833,19 +2832,19 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
@@ -2853,26 +2852,26 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2882,17 +2881,17 @@
       <c r="E10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2900,33 +2899,33 @@
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -2934,31 +2933,31 @@
       <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
@@ -2990,47 +2989,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3051,10 +3050,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -3069,19 +3068,19 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -3089,19 +3088,19 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -3109,19 +3108,19 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
@@ -3129,39 +3128,39 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>9</v>
@@ -3169,19 +3168,19 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>9</v>
@@ -3189,19 +3188,19 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>9</v>
@@ -3209,26 +3208,26 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3238,17 +3237,17 @@
       <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="18"/>
+      <c r="A15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
@@ -3256,52 +3255,46 @@
       <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="18"/>
+      <c r="A17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="4"/>
       <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="A7:B7"/>
@@ -3317,6 +3310,12 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
@@ -3349,47 +3348,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3410,10 +3409,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -3428,19 +3427,19 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -3448,19 +3447,19 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -3468,26 +3467,26 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
@@ -3497,17 +3496,17 @@
       <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="18"/>
+      <c r="A10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="15"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3515,17 +3514,17 @@
       <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="10" t="s">
         <v>10</v>
@@ -3533,20 +3532,14 @@
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A11:B11"/>
@@ -3555,6 +3548,12 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
@@ -3586,47 +3585,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3647,10 +3646,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -3665,14 +3664,14 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
@@ -3685,14 +3684,14 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
@@ -3705,19 +3704,19 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
@@ -3725,19 +3724,19 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
@@ -3745,19 +3744,19 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>9</v>
@@ -3765,19 +3764,19 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>9</v>
@@ -3787,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -3803,10 +3802,10 @@
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
@@ -3816,17 +3815,17 @@
       <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -3834,17 +3833,17 @@
       <c r="E14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="18"/>
+      <c r="A15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="10" t="s">
         <v>10</v>
@@ -3852,73 +3851,62 @@
       <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="A16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="18"/>
+      <c r="A17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="4"/>
       <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="18"/>
+      <c r="A18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="4"/>
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="F18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="A18:B18"/>
@@ -3932,6 +3920,17 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
@@ -3963,47 +3962,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -4024,10 +4023,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -4042,14 +4041,14 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
@@ -4064,19 +4063,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -4084,19 +4083,19 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
@@ -4104,19 +4103,19 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
@@ -4124,26 +4123,26 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
@@ -4153,17 +4152,17 @@
       <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -4171,62 +4170,70 @@
       <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B1:H1"/>
@@ -4239,14 +4246,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4275,47 +4274,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -4336,10 +4335,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -4354,14 +4353,14 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
@@ -4376,14 +4375,14 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
@@ -4398,19 +4397,19 @@
         <v>20</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -4418,39 +4417,39 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
-        <v>173</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>9</v>
@@ -4458,26 +4457,26 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -4487,17 +4486,17 @@
       <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4505,62 +4504,75 @@
       <c r="E13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="A13:B13"/>
@@ -4569,19 +4581,6 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4608,47 +4607,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -4669,10 +4668,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -4689,14 +4688,14 @@
         <v>20</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
@@ -4713,19 +4712,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -4733,19 +4732,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -4753,26 +4752,26 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
@@ -4782,17 +4781,17 @@
       <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -4800,30 +4799,36 @@
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="4"/>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A12:B12"/>
@@ -4833,12 +4838,6 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4867,47 +4866,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -4928,10 +4927,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -4946,14 +4945,14 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
@@ -4968,19 +4967,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -4988,19 +4987,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -5008,19 +5007,19 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>9</v>
@@ -5028,26 +5027,26 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
@@ -5057,17 +5056,17 @@
       <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -5075,64 +5074,64 @@
       <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="18"/>
+      <c r="A13" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:H11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Modelagem/Dicionario de Dados.xlsx
+++ b/Modelagem/Dicionario de Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamily.luzes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741113A3-EB92-4C94-A452-45157E11AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEEA896-E249-4EB8-83F3-2161192FA5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="4" activeTab="11" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="260">
   <si>
     <t>Tabela</t>
   </si>
@@ -120,9 +120,6 @@
     <t xml:space="preserve">CPF </t>
   </si>
   <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>Varchar(100)</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Varchar(15)</t>
   </si>
   <si>
-    <t>11-11</t>
-  </si>
-  <si>
     <t>10-100</t>
   </si>
   <si>
@@ -144,6 +138,9 @@
     <t>1 - sem limite</t>
   </si>
   <si>
+    <t>Varchar(18)</t>
+  </si>
+  <si>
     <t>10-15</t>
   </si>
   <si>
@@ -183,18 +180,6 @@
     <t>IX_CLIENTE_NOME</t>
   </si>
   <si>
-    <t>cliente_id, CPF</t>
-  </si>
-  <si>
-    <t>cliente_id, email</t>
-  </si>
-  <si>
-    <t>cliente_id, endereço_id</t>
-  </si>
-  <si>
-    <t>cliente_id, nome</t>
-  </si>
-  <si>
     <t>Funcionários</t>
   </si>
   <si>
@@ -228,45 +213,27 @@
     <t>Data de contratação do funcionário. Regra: Não pode ser data futura (implementada com CHECK Constraint).</t>
   </si>
   <si>
-    <t>dt_contratação</t>
-  </si>
-  <si>
     <t>PK_FUNCIONARIOS</t>
   </si>
   <si>
     <t>IX_FUNCIONARIOS_NOME</t>
   </si>
   <si>
-    <t>funcionario_id, nome</t>
-  </si>
-  <si>
     <t>IX_FUNCIONARIOS_CARGO</t>
   </si>
   <si>
-    <t>funcionario_id, cargo</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar os dados de Endereço do Cliente</t>
   </si>
   <si>
     <t>Chave primária. Código de identificador único do endereço do cliente.</t>
   </si>
   <si>
-    <t>Logradouro</t>
-  </si>
-  <si>
     <t>10 - 100</t>
   </si>
   <si>
-    <t>Bairro</t>
-  </si>
-  <si>
     <t>5-50</t>
   </si>
   <si>
-    <t>Numero</t>
-  </si>
-  <si>
     <t>Varchar(10)</t>
   </si>
   <si>
@@ -291,9 +258,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>Cep</t>
-  </si>
-  <si>
     <t>Varchar(8)</t>
   </si>
   <si>
@@ -333,18 +297,12 @@
     <t>IX_ENDERECO_CEP</t>
   </si>
   <si>
-    <t>endereco_id, cep</t>
-  </si>
-  <si>
     <t>Endereco</t>
   </si>
   <si>
     <t>IX_ENDERECO_CIDADE</t>
   </si>
   <si>
-    <t>endereco_id, cidade, estado</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -387,9 +345,6 @@
     <t>UK_CATEGORIA_NOME</t>
   </si>
   <si>
-    <t>categoria_id, nome_categoria</t>
-  </si>
-  <si>
     <t>equipamento_id</t>
   </si>
   <si>
@@ -456,21 +411,12 @@
     <t>FK_EQUIPAMENTO_CATEGORIA</t>
   </si>
   <si>
-    <t>equipamento_id, categoria_id</t>
-  </si>
-  <si>
     <t>IX_EQUIPAMENTO_MODELO</t>
   </si>
   <si>
     <t>equipamento_id, modelo</t>
   </si>
   <si>
-    <t>equipamento_id, endereço_id</t>
-  </si>
-  <si>
-    <t>equipamento_id, numero_serie</t>
-  </si>
-  <si>
     <t>Estoque</t>
   </si>
   <si>
@@ -528,21 +474,12 @@
     <t>FK_ESTOQUE_EQUIPAMENTO</t>
   </si>
   <si>
-    <t>estoque_id, equipamento_id</t>
-  </si>
-  <si>
     <t>IX_ESTOQUE_DISPONIVEL</t>
   </si>
   <si>
-    <t>estoque_id, quant_disponivel</t>
-  </si>
-  <si>
     <t>IX_ESTOQUE_REVISAO</t>
   </si>
   <si>
-    <t>estoque_id, data_revisao</t>
-  </si>
-  <si>
     <t>Aluguel</t>
   </si>
   <si>
@@ -591,15 +528,9 @@
     <t>FK_ALUGUEL_CLIENTE</t>
   </si>
   <si>
-    <t>aluguel_id, cliente_id</t>
-  </si>
-  <si>
     <t>FK_ALUGUEL_FUNCIONARIO</t>
   </si>
   <si>
-    <t>aluguel_id, funcionario_id</t>
-  </si>
-  <si>
     <t>IX_ALUGUEL_DATAINICIO</t>
   </si>
   <si>
@@ -684,9 +615,6 @@
     <t>FK_PAGAMENTOS_ALUGUEL</t>
   </si>
   <si>
-    <t>pagamento_id, aluguel_id</t>
-  </si>
-  <si>
     <t>IX_PAGAMENTOS_DATA</t>
   </si>
   <si>
@@ -747,21 +675,12 @@
     <t>FK_MANUTENCAO_EQUIP</t>
   </si>
   <si>
-    <t>manutencao_id, equipamento_id</t>
-  </si>
-  <si>
     <t>FK_MANUTENCAO_FORN</t>
   </si>
   <si>
-    <t>manutencao_id, fornecedor_id</t>
-  </si>
-  <si>
     <t>IX_MANUTENCAO_INICIO</t>
   </si>
   <si>
-    <t>manutencao_id, dt_inicio</t>
-  </si>
-  <si>
     <t>multa_id</t>
   </si>
   <si>
@@ -807,21 +726,12 @@
     <t>FK_MULTAS_ALUGUEL</t>
   </si>
   <si>
-    <t>multa_id, aluguel_id</t>
-  </si>
-  <si>
     <t>IX_MULTAS_DATA</t>
   </si>
   <si>
-    <t>multa_id, dt_multa</t>
-  </si>
-  <si>
     <t>IX_MULTAS_STATUS</t>
   </si>
   <si>
-    <t>multa_id, status_pagamento</t>
-  </si>
-  <si>
     <t>Fornecedores</t>
   </si>
   <si>
@@ -834,21 +744,9 @@
     <t>5 - 100</t>
   </si>
   <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>Char(14)</t>
-  </si>
-  <si>
     <t>14-14</t>
   </si>
   <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>15-15</t>
-  </si>
-  <si>
     <t>Nome ou Razão Social do Fornecedor.</t>
   </si>
   <si>
@@ -876,7 +774,55 @@
     <t>Tabela responsável por armazenar os dados das empresas ou pessoas jurídicas que fornecem serviços ou equipamentos.</t>
   </si>
   <si>
-    <t>Varchar(11)</t>
+    <t>Varchar(14)</t>
+  </si>
+  <si>
+    <t>18-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>dt_contratacao</t>
+  </si>
+  <si>
+    <t>logradouro</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CPF</t>
+  </si>
+  <si>
+    <t>endereço_id</t>
+  </si>
+  <si>
+    <t>cidade, estado</t>
+  </si>
+  <si>
+    <t>FK_ALUGUELITEM_ALUGUEL</t>
+  </si>
+  <si>
+    <t>FK_ALUGUELITEM_EQUIPAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aluguel_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> equipamento_id</t>
   </si>
 </sst>
 </file>
@@ -991,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1031,6 +977,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1391,47 +1340,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1452,10 +1401,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1470,19 +1419,19 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -1490,19 +1439,19 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="6" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
@@ -1510,19 +1459,19 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>9</v>
@@ -1530,19 +1479,19 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
@@ -1550,19 +1499,19 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>9</v>
@@ -1572,27 +1521,27 @@
         <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1602,17 +1551,17 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1620,17 +1569,17 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -1638,17 +1587,17 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
@@ -1656,43 +1605,43 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1732,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8C60F5-3335-437A-8FC0-875170F0BF4A}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1751,47 +1700,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1812,10 +1761,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -1830,19 +1779,19 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>9</v>
@@ -1852,19 +1801,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -1874,19 +1823,19 @@
         <v>20</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -1894,39 +1843,39 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="14" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>9</v>
@@ -1934,19 +1883,19 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>9</v>
@@ -1954,26 +1903,26 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
@@ -1983,17 +1932,17 @@
       <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -2001,59 +1950,59 @@
       <c r="E14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2088,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5A1C35-02A5-477D-A97E-BAFF5E55849E}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2107,47 +2056,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -2168,10 +2117,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -2186,19 +2135,19 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>9</v>
@@ -2208,19 +2157,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="14" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -2228,19 +2177,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -2248,19 +2197,19 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>9</v>
@@ -2268,19 +2217,19 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="14" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>9</v>
@@ -2288,26 +2237,26 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2317,17 +2266,17 @@
       <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2335,59 +2284,59 @@
       <c r="E13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2421,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A55FCD8-AAC8-4D8D-A092-A88F3F334D41}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2440,47 +2389,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -2501,10 +2450,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -2519,19 +2468,19 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>9</v>
@@ -2539,19 +2488,19 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="14" t="s">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -2559,19 +2508,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -2579,26 +2528,26 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
@@ -2608,17 +2557,17 @@
       <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2626,17 +2575,17 @@
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="12" t="s">
         <v>10</v>
@@ -2644,27 +2593,27 @@
       <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2695,7 +2644,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2713,47 +2662,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2774,10 +2723,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -2792,19 +2741,19 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -2812,19 +2761,19 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -2832,19 +2781,19 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
@@ -2852,26 +2801,26 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2881,17 +2830,17 @@
       <c r="E10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2899,33 +2848,33 @@
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -2933,11 +2882,11 @@
       <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2971,7 +2920,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2989,47 +2938,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3050,10 +2999,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -3068,19 +3017,19 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -3088,19 +3037,19 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -3108,19 +3057,19 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
@@ -3128,39 +3077,39 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>9</v>
@@ -3168,19 +3117,19 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>9</v>
@@ -3188,19 +3137,19 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="18"/>
       <c r="C12" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>9</v>
@@ -3208,26 +3157,26 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3237,17 +3186,17 @@
       <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
@@ -3255,43 +3204,43 @@
       <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3329,7 +3278,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3348,47 +3297,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3409,10 +3358,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -3427,19 +3376,19 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -3447,19 +3396,19 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -3467,26 +3416,26 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
@@ -3496,17 +3445,17 @@
       <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3514,17 +3463,17 @@
       <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="4"/>
       <c r="D11" s="10" t="s">
         <v>10</v>
@@ -3532,11 +3481,11 @@
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3564,10 +3513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6730F6-9A00-449E-8A27-E844E0C6E62D}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F17" sqref="F17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3585,47 +3534,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3646,10 +3595,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -3664,19 +3613,19 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -3684,19 +3633,19 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -3704,19 +3653,19 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
@@ -3724,19 +3673,19 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
@@ -3744,19 +3693,19 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="20"/>
+      <c r="A10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="21"/>
       <c r="C10" s="9" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>9</v>
@@ -3764,19 +3713,19 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="20"/>
+      <c r="A11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>9</v>
@@ -3786,26 +3735,26 @@
         <v>10</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
@@ -3815,17 +3764,17 @@
       <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
@@ -3833,17 +3782,17 @@
       <c r="E14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="10" t="s">
         <v>10</v>
@@ -3851,66 +3800,48 @@
       <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="F17" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="F18:H18"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F14:H14"/>
@@ -3944,7 +3875,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3962,47 +3893,47 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -4023,10 +3954,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
@@ -4041,19 +3972,19 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -4063,19 +3994,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -4083,19 +4014,19 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
@@ -4103,19 +4034,19 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
@@ -4123,26 +4054,26 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
@@ -4152,17 +4083,17 @@
       <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -4170,59 +4101,59 @@
       <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4255,8 +4186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AA329D-8C81-485C-8E21-FCDD368D80E8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4274,47 +4205,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -4335,10 +4266,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -4353,19 +4284,19 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>9</v>
@@ -4375,19 +4306,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -4397,19 +4328,19 @@
         <v>20</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -4417,39 +4348,39 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="14" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>9</v>
@@ -4457,26 +4388,26 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -4486,17 +4417,17 @@
       <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4504,59 +4435,59 @@
       <c r="E13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4588,14 +4519,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66BD520-B1ED-4F04-BA36-9CA794DBE85D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
     <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="5.54296875" customWidth="1"/>
@@ -4607,47 +4539,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -4668,10 +4600,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -4688,19 +4620,19 @@
         <v>20</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>9</v>
@@ -4712,19 +4644,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -4732,19 +4664,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -4752,26 +4684,26 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
@@ -4781,17 +4713,17 @@
       <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
@@ -4799,31 +4731,67 @@
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -4848,7 +4816,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4866,47 +4834,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
@@ -4927,10 +4895,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -4945,19 +4913,19 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>9</v>
@@ -4967,19 +4935,19 @@
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="14" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>9</v>
@@ -4987,19 +4955,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>9</v>
@@ -5007,19 +4975,19 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>9</v>
@@ -5027,26 +4995,26 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
@@ -5056,17 +5024,17 @@
       <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -5074,43 +5042,43 @@
       <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
